--- a/data/123-madao_service/authentication-server_structure.xlsx
+++ b/data/123-madao_service/authentication-server_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="357">
   <si>
     <t>类名</t>
   </si>
@@ -1066,31 +1066,16 @@
     <t>权重</t>
   </si>
   <si>
-    <t>onAuthenticationSuccess(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>doFilterInternal(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>attemptAuthentication(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>decide(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
     <t>源接口名</t>
   </si>
   <si>
     <t>源操作签名</t>
-  </si>
-  <si>
-    <t>createCode(javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>目标接口</t>
@@ -10233,7 +10218,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10261,7 +10246,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -10270,7 +10255,7 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
@@ -10278,50 +10263,50 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
@@ -10332,13 +10317,13 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7">
@@ -10346,16 +10331,16 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
@@ -10369,10 +10354,10 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
@@ -10386,10 +10371,10 @@
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
@@ -10397,16 +10382,16 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11">
@@ -10417,13 +10402,13 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12">
@@ -10434,13 +10419,13 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13">
@@ -10451,13 +10436,13 @@
         <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14">
@@ -10468,10 +10453,10 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
         <v>349</v>
@@ -10479,19 +10464,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16">
@@ -10499,16 +10484,16 @@
         <v>66</v>
       </c>
       <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17">
@@ -10516,16 +10501,16 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18">
@@ -10539,10 +10524,10 @@
         <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19">
@@ -10556,10 +10541,10 @@
         <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20">
@@ -10567,16 +10552,16 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21">
@@ -10587,13 +10572,13 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22">
@@ -10604,13 +10589,13 @@
         <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23">
@@ -10621,13 +10606,13 @@
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24">
@@ -10638,10 +10623,10 @@
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
         <v>349</v>
@@ -10649,19 +10634,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26">
@@ -10669,16 +10654,16 @@
         <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27">
@@ -10692,10 +10677,10 @@
         <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28">
@@ -10709,15 +10694,15 @@
         <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
         <v>47</v>
@@ -10726,10 +10711,10 @@
         <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30">
@@ -10743,10 +10728,10 @@
         <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31">
@@ -10760,10 +10745,10 @@
         <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32">
@@ -10771,16 +10756,16 @@
         <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33">
@@ -10794,10 +10779,10 @@
         <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34">
@@ -10808,13 +10793,13 @@
         <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35">
@@ -10825,13 +10810,13 @@
         <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
@@ -10839,16 +10824,16 @@
         <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37">
@@ -10859,13 +10844,13 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D37" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38">
@@ -10876,13 +10861,13 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39">
@@ -10893,13 +10878,13 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
@@ -10910,10 +10895,10 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>349</v>
@@ -10924,16 +10909,16 @@
         <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42">
@@ -10944,30 +10929,30 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>351</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44">
@@ -10975,16 +10960,16 @@
         <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>351</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45">
@@ -10992,16 +10977,16 @@
         <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>351</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46">
@@ -11009,30 +10994,30 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
         <v>349</v>
@@ -11040,19 +11025,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49">
@@ -11060,7 +11045,7 @@
         <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
         <v>114</v>
@@ -11069,41 +11054,41 @@
         <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52">
@@ -11111,16 +11096,16 @@
         <v>147</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
         <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53">
@@ -11134,10 +11119,10 @@
         <v>147</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="54">
@@ -11151,44 +11136,44 @@
         <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E56" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57">
@@ -11196,16 +11181,16 @@
         <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
         <v>167</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58">
@@ -11213,16 +11198,16 @@
         <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
         <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="E58" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59">
@@ -11230,16 +11215,16 @@
         <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
         <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60">
@@ -11253,10 +11238,10 @@
         <v>167</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E60" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61">
@@ -11270,10 +11255,10 @@
         <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62">
@@ -11281,84 +11266,84 @@
         <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s">
         <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D63" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="E64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
         <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>226</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="E66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="67">
@@ -11369,18 +11354,18 @@
         <v>195</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
         <v>195</v>
@@ -11392,7 +11377,7 @@
         <v>209</v>
       </c>
       <c r="E68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69">
@@ -11403,64 +11388,64 @@
         <v>195</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="E71" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="E72" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73">
@@ -11468,16 +11453,16 @@
         <v>227</v>
       </c>
       <c r="B73" t="s">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
         <v>227</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
@@ -11485,16 +11470,16 @@
         <v>227</v>
       </c>
       <c r="B74" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
         <v>227</v>
       </c>
       <c r="D74" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E74" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
@@ -11502,16 +11487,67 @@
         <v>227</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
         <v>227</v>
       </c>
       <c r="D75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>227</v>
+      </c>
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" t="s">
         <v>233</v>
       </c>
-      <c r="E75" t="s">
-        <v>349</v>
+      <c r="E78" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -11521,7 +11557,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11529,10 +11565,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C1" t="s">
         <v>345</v>
@@ -11546,19 +11582,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
@@ -11566,16 +11602,33 @@
         <v>340</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" t="s">
         <v>108</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
-        <v>349</v>
+      <c r="E4" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -11599,10 +11652,10 @@
         <v>344</v>
       </c>
       <c r="C1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E1" t="s">
         <v>347</v>
@@ -11623,16 +11676,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" t="s">
         <v>354</v>
       </c>
-      <c r="B1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C1" t="s">
-        <v>359</v>
-      </c>
       <c r="D1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E1" t="s">
         <v>347</v>
@@ -11662,7 +11715,7 @@
         <v>345</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E1" t="s">
         <v>347</v>
@@ -11682,7 +11735,7 @@
         <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
@@ -11699,7 +11752,7 @@
         <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
@@ -11716,7 +11769,7 @@
         <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -11733,7 +11786,7 @@
         <v>278</v>
       </c>
       <c r="E5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
@@ -11750,7 +11803,7 @@
         <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7">
@@ -11767,7 +11820,7 @@
         <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
@@ -11784,7 +11837,7 @@
         <v>281</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -11802,16 +11855,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C1" t="s">
         <v>345</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E1" t="s">
         <v>347</v>
